--- a/biology/Zoologie/Diapoma/Diapoma.xlsx
+++ b/biology/Zoologie/Diapoma/Diapoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diapoma est un genre de poissons téléostéens d'eau douce de la famille des Characidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (20 juillet 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (20 juillet 2023) :
 Diapoma alburnum  (Hensel, 1870)
 Diapoma alegretense  (Malabarba &amp; Weitzman, 2003)
 Diapoma dicropotamicus  (Malabarba &amp; Weitzman, 2003)
@@ -555,9 +569,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Diapoma Cope, 1894[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Diapoma Cope, 1894,.
 </t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) E. D. Cope, « On three new genera of Characinidae », The American Naturalist, Chicago, vol. 38, no 325,‎ janvier 1894, p. 67 (ISSN 0003-0147, e-ISSN 1537-5323, lire en ligne, consulté le 20 juillet 2023).</t>
         </is>
